--- a/pred_ohlcv/54_21/2019-10-19 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 TRX ohlcv.xlsx
@@ -1172,7 +1172,7 @@
         <v>2260015.87385249</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>2260015.87385249</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>2232657.44805249</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>2272057.44805249</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>2272057.44805249</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>2272057.44805249</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>2345151.83645249</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>2345151.83645249</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>2345151.83645249</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>2323750.220324071</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>2323750.220324071</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>2323750.220324071</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>2323750.220324071</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>2323750.220324071</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>2323750.220324071</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>2213652.627624071</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>2213669.111124071</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>2213669.111124071</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>2213669.111124071</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>2213669.111124071</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>2213669.111124071</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>2371491.861424071</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>2371491.861424071</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>7100148.77527111</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>7100148.77527111</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>7100148.77527111</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>7100148.77527111</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>7100148.77527111</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>7100148.77527111</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>7100148.77527111</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>7100148.77527111</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>7100148.77527111</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>7100148.77527111</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>7100164.79677111</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>7100164.79677111</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>7100164.79677111</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>7079533.41777111</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>7079693.41777111</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>7007704.33517111</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>7007714.33517111</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>7007714.33517111</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>6992859.4503152</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>6992859.4503152</v>
       </c>
       <c r="H355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>6992859.4503152</v>
       </c>
       <c r="H356">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>7092959.4503152</v>
       </c>
       <c r="H357">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>7092948.4503152</v>
       </c>
       <c r="H358">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>7106946.4304152</v>
       </c>
       <c r="H359">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>7106813.8595152</v>
       </c>
       <c r="H360">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>7106813.8595152</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>7106813.8595152</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>7106813.8595152</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>7106813.8595152</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>7007988.7109152</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>7007988.7109152</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>7007988.7109152</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>7009210.70016251</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>7008400.033962511</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>7008400.033962511</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>7008400.033962511</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>7008400.033962511</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>7008400.033962511</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>7008400.033962511</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>7008400.033962511</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>7008168.099162511</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>7021314.325962511</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>7021314.325962511</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>7021314.325962511</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>7021314.325962511</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>6949177.417562511</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>6790533.35306251</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>6796108.06306251</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>6796351.306262511</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>6745015.456262511</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>6809828.239162511</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>6944884.169262512</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>6944884.169262512</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>6944884.169262512</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>6944884.169262512</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>6944884.169262512</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>6944884.169262512</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>6437067.342562512</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>6610040.315535482</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>6609944.826435482</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>6609954.826435482</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>6422006.452035482</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>6425652.103735482</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>6428851.781135483</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>6424326.035235482</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>6424336.035235482</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>6417173.095235482</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>6417324.976955912</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>6417324.976955912</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>6414752.066955912</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>6414752.066955912</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>6414752.066955912</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>5259584.486855912</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>5669047.866055911</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>5815364.985955912</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>5820712.579538791</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>5770509.531410451</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>5770509.531410451</v>
       </c>
       <c r="H506">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>5770509.531410451</v>
       </c>
       <c r="H507">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>5820345.402710451</v>
       </c>
       <c r="H508">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>5820345.402710451</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>5780124.17981045</v>
       </c>
       <c r="H510">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>5780124.17981045</v>
       </c>
       <c r="H511">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>5780124.17981045</v>
       </c>
       <c r="H512">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>5780124.17981045</v>
       </c>
       <c r="H513">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>5688853.68881045</v>
       </c>
       <c r="H514">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>5688853.68881045</v>
       </c>
       <c r="H515">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>5691834.04791045</v>
       </c>
       <c r="H516">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>5652823.09301045</v>
       </c>
       <c r="H517">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>5652823.09301045</v>
       </c>
       <c r="H518">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>5654472.55821045</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>5652823.09301045</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>5652823.09301045</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>5620842.41481045</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>5622392.790010449</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-19 TRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-19 TRX ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-403212.17364751</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-403212.17364751</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-403212.17364751</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>417024.49285249</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>2260015.87385249</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>2260015.87385249</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>2232657.44805249</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>2272057.44805249</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>2272057.44805249</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>2272057.44805249</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>2345151.83645249</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>2345151.83645249</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>2345151.83645249</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>2323750.220324071</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>2323750.220324071</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>2323750.220324071</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>2323750.220324071</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>2323750.220324071</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>2323750.220324071</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>2213652.627624071</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>2213669.111124071</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>2213669.111124071</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>2213669.111124071</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>2213669.111124071</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>2213669.111124071</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>2371491.861424071</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>2371491.861424071</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>7110653.5752152</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>7007988.7109152</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>5770509.531410451</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>5820345.402710451</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>5820345.402710451</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>5780124.17981045</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>5780124.17981045</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>5780124.17981045</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>5780124.17981045</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>5688853.68881045</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>5688853.68881045</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>5691834.04791045</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>5652823.09301045</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>5652823.09301045</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>5654472.55821045</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>5652823.09301045</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>5652823.09301045</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
